--- a/_data/sr/temporal/Estadistica.xlsx
+++ b/_data/sr/temporal/Estadistica.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acueto\Desktop\BASE DE DATOS SENASIR_v2\ABRIL\SR\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acueto\Desktop\MAYO\SR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -749,6 +749,84 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
@@ -794,12 +872,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -808,78 +880,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="I2" s="42">
         <f>'2024'!G12</f>
-        <v>0</v>
+        <v>40527</v>
       </c>
       <c r="J2" s="42">
         <f>'2024'!H12</f>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I3" s="42">
         <f>'2024'!G13</f>
-        <v>0</v>
+        <v>31814</v>
       </c>
       <c r="J3" s="42">
         <f>'2024'!H13</f>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="I4" s="42">
         <f>'2024'!G15</f>
-        <v>0</v>
+        <v>889</v>
       </c>
       <c r="J4" s="42">
         <f>'2024'!H15</f>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="I5" s="42">
         <f>'2024'!G16</f>
-        <v>0</v>
+        <v>681</v>
       </c>
       <c r="J5" s="42">
         <f>'2024'!H16</f>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="I6" s="42">
         <f>'2024'!G21</f>
-        <v>0</v>
+        <v>2299</v>
       </c>
       <c r="J6" s="42">
         <f>'2024'!H21</f>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="I7" s="42">
         <f>'2024'!G22</f>
-        <v>0</v>
+        <v>1048</v>
       </c>
       <c r="J7" s="42">
         <f>'2024'!H22</f>
@@ -1608,7 +1608,7 @@
       </c>
       <c r="I8" s="42">
         <f>'2024'!G24</f>
-        <v>0</v>
+        <v>1533</v>
       </c>
       <c r="J8" s="42">
         <f>'2024'!H24</f>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="I9" s="42">
         <f>'2024'!G25</f>
-        <v>0</v>
+        <v>1286</v>
       </c>
       <c r="J9" s="42">
         <f>'2024'!H25</f>
@@ -1812,7 +1812,7 @@
       </c>
       <c r="I11">
         <f>'2024'!G34</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J11">
         <f>'2024'!H34</f>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="I12">
         <f>'2024'!G35</f>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="J12">
         <f>'2024'!H35</f>
@@ -1946,7 +1946,7 @@
       </c>
       <c r="I13">
         <f>'2024'!G36</f>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="J13">
         <f>'2024'!H36</f>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="I15">
         <f>'2024'!G38</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J15">
         <f>'2024'!H38</f>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="I17">
         <f>'2024'!G40</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J17">
         <f>'2024'!H40</f>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="I19">
         <f>'2024'!G42</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <f>'2024'!H42</f>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="I20">
         <f>'2024'!G43</f>
-        <v>0</v>
+        <v>814</v>
       </c>
       <c r="J20">
         <f>'2024'!H43</f>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="I21">
         <f>'2024'!G44</f>
-        <v>0</v>
+        <v>435</v>
       </c>
       <c r="J21">
         <f>'2024'!H44</f>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="I22">
         <f>'2024'!G45</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J22">
         <f>'2024'!H45</f>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="I23">
         <f>'2024'!G46</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J23">
         <f>'2024'!H46</f>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="I24">
         <f>'2024'!G47</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="J24">
         <f>'2024'!H47</f>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="I25">
         <f>'2024'!G48</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="J25">
         <f>'2024'!H48</f>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="I26">
         <f>'2024'!G49</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J26">
         <f>'2024'!H49</f>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="I27">
         <f>'2024'!G50</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J27">
         <f>'2024'!H50</f>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="I28">
         <f>'2024'!G51</f>
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="J28">
         <f>'2024'!H51</f>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="I29">
         <f>'2024'!G52</f>
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="J29">
         <f>'2024'!H52</f>
@@ -3126,8 +3126,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C33" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33:G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3140,21 +3140,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="63"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="65"/>
+      <c r="A1" s="89"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="91"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -3168,21 +3168,21 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="68"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="94"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -3196,21 +3196,21 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="68"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="94"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -3224,21 +3224,21 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="71"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="97"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -3252,23 +3252,23 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="74"/>
+      <c r="A5" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="100"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -3282,21 +3282,21 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="75"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="77"/>
+      <c r="A6" s="101"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="103"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -3338,23 +3338,23 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="80"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="106"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -3368,21 +3368,21 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="81"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="83"/>
+      <c r="A9" s="107"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="109"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -3396,27 +3396,27 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="63" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="86">
+      <c r="C10" s="110">
         <v>2024</v>
       </c>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="88"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="112"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -3430,7 +3430,7 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="85"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
@@ -3486,7 +3486,7 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="76" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -3504,7 +3504,9 @@
       <c r="F12" s="8">
         <v>40713</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="7">
+        <v>40527</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -3526,7 +3528,7 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
@@ -3542,7 +3544,9 @@
       <c r="F13" s="8">
         <v>31854</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7">
+        <v>31814</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -3564,10 +3568,10 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="97"/>
+      <c r="B14" s="79"/>
       <c r="C14" s="9">
         <f t="shared" ref="C14:O14" si="0">SUM(C12:C13)</f>
         <v>73379</v>
@@ -3586,7 +3590,7 @@
       </c>
       <c r="G14" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>72341</v>
       </c>
       <c r="H14" s="9">
         <f t="shared" si="0"/>
@@ -3633,7 +3637,7 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="94" t="s">
+      <c r="A15" s="76" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -3651,7 +3655,9 @@
       <c r="F15" s="8">
         <v>910</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="7">
+        <v>889</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -3673,7 +3679,7 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="95"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="6" t="s">
         <v>20</v>
       </c>
@@ -3689,7 +3695,9 @@
       <c r="F16" s="8">
         <v>695</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="7">
+        <v>681</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -3711,10 +3719,10 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="97"/>
+      <c r="B17" s="79"/>
       <c r="C17" s="9">
         <f t="shared" ref="C17:O17" si="1">SUM(C15:C16)</f>
         <v>1666</v>
@@ -3733,7 +3741,7 @@
       </c>
       <c r="G17" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1570</v>
       </c>
       <c r="H17" s="9">
         <f t="shared" si="1"/>
@@ -3780,10 +3788,10 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="98" t="s">
+      <c r="A18" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="99"/>
+      <c r="B18" s="81"/>
       <c r="C18" s="10">
         <f t="shared" ref="C18:O18" si="2">C17+C14</f>
         <v>75045</v>
@@ -3802,7 +3810,7 @@
       </c>
       <c r="G18" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>73911</v>
       </c>
       <c r="H18" s="10">
         <f t="shared" si="2"/>
@@ -3849,23 +3857,23 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="100" t="s">
+      <c r="A19" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="101"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="102"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="84"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3937,7 +3945,7 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="76" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -3955,7 +3963,9 @@
       <c r="F21" s="8">
         <v>2311</v>
       </c>
-      <c r="G21" s="7"/>
+      <c r="G21" s="7">
+        <v>2299</v>
+      </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -3977,7 +3987,7 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="95"/>
+      <c r="A22" s="77"/>
       <c r="B22" s="6" t="s">
         <v>20</v>
       </c>
@@ -3993,7 +4003,9 @@
       <c r="F22" s="8">
         <v>1076</v>
       </c>
-      <c r="G22" s="7"/>
+      <c r="G22" s="7">
+        <v>1048</v>
+      </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -4015,10 +4027,10 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="97"/>
+      <c r="B23" s="79"/>
       <c r="C23" s="9">
         <f t="shared" ref="C23:O23" si="3">SUM(C21:C22)</f>
         <v>3617</v>
@@ -4037,7 +4049,7 @@
       </c>
       <c r="G23" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3347</v>
       </c>
       <c r="H23" s="9">
         <f t="shared" si="3"/>
@@ -4084,7 +4096,7 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="94" t="s">
+      <c r="A24" s="76" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -4102,7 +4114,9 @@
       <c r="F24" s="7">
         <v>1473</v>
       </c>
-      <c r="G24" s="7"/>
+      <c r="G24" s="7">
+        <v>1533</v>
+      </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -4124,7 +4138,7 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="95"/>
+      <c r="A25" s="77"/>
       <c r="B25" s="6" t="s">
         <v>20</v>
       </c>
@@ -4140,7 +4154,9 @@
       <c r="F25" s="8">
         <v>1243</v>
       </c>
-      <c r="G25" s="7"/>
+      <c r="G25" s="7">
+        <v>1286</v>
+      </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
@@ -4162,10 +4178,10 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="96" t="s">
+      <c r="A26" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="97"/>
+      <c r="B26" s="79"/>
       <c r="C26" s="9">
         <f t="shared" ref="C26:J26" si="4">SUM(C24:C25)</f>
         <v>582</v>
@@ -4184,7 +4200,7 @@
       </c>
       <c r="G26" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2819</v>
       </c>
       <c r="H26" s="9">
         <f t="shared" si="4"/>
@@ -4230,10 +4246,10 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="103" t="s">
+      <c r="A27" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="104"/>
+      <c r="B27" s="85"/>
       <c r="C27" s="10">
         <f t="shared" ref="C27:O27" si="6">C26+C23</f>
         <v>4199</v>
@@ -4252,7 +4268,7 @@
       </c>
       <c r="G27" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6166</v>
       </c>
       <c r="H27" s="10">
         <f t="shared" si="6"/>
@@ -4327,23 +4343,23 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="105" t="s">
+      <c r="A29" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="106"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="106"/>
-      <c r="M29" s="106"/>
-      <c r="N29" s="106"/>
-      <c r="O29" s="107"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="87"/>
+      <c r="M29" s="87"/>
+      <c r="N29" s="87"/>
+      <c r="O29" s="88"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -4357,21 +4373,21 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="89"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="90"/>
-      <c r="N30" s="90"/>
-      <c r="O30" s="90"/>
+      <c r="A30" s="71"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -4389,20 +4405,20 @@
       <c r="B31" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="91">
+      <c r="C31" s="73">
         <v>2024</v>
       </c>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="93"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="75"/>
       <c r="O31" s="18"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -4473,7 +4489,7 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="84" t="s">
+      <c r="A33" s="63" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="23" t="s">
@@ -4491,7 +4507,9 @@
       <c r="F33" s="24">
         <v>0</v>
       </c>
-      <c r="G33" s="25"/>
+      <c r="G33" s="25">
+        <v>0</v>
+      </c>
       <c r="H33" s="26"/>
       <c r="I33" s="27"/>
       <c r="J33" s="28"/>
@@ -4513,7 +4531,7 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="85"/>
+      <c r="A34" s="64"/>
       <c r="B34" s="23" t="s">
         <v>33</v>
       </c>
@@ -4529,7 +4547,9 @@
       <c r="F34" s="24">
         <v>104</v>
       </c>
-      <c r="G34" s="25"/>
+      <c r="G34" s="25">
+        <v>80</v>
+      </c>
       <c r="H34" s="26"/>
       <c r="I34" s="27"/>
       <c r="J34" s="28"/>
@@ -4551,7 +4571,7 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="111" t="s">
+      <c r="A35" s="69" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="23" t="s">
@@ -4569,7 +4589,9 @@
       <c r="F35" s="24">
         <v>264</v>
       </c>
-      <c r="G35" s="25"/>
+      <c r="G35" s="25">
+        <v>210</v>
+      </c>
       <c r="H35" s="26"/>
       <c r="I35" s="27"/>
       <c r="J35" s="28"/>
@@ -4591,7 +4613,7 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="112"/>
+      <c r="A36" s="70"/>
       <c r="B36" s="23" t="s">
         <v>33</v>
       </c>
@@ -4607,7 +4629,9 @@
       <c r="F36" s="24">
         <v>211</v>
       </c>
-      <c r="G36" s="25"/>
+      <c r="G36" s="25">
+        <v>136</v>
+      </c>
       <c r="H36" s="26"/>
       <c r="I36" s="27"/>
       <c r="J36" s="28"/>
@@ -4629,7 +4653,7 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="111" t="s">
+      <c r="A37" s="69" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="23" t="s">
@@ -4647,7 +4671,9 @@
       <c r="F37" s="24">
         <v>0</v>
       </c>
-      <c r="G37" s="32"/>
+      <c r="G37" s="32">
+        <v>0</v>
+      </c>
       <c r="H37" s="33"/>
       <c r="I37" s="27"/>
       <c r="J37" s="34"/>
@@ -4669,7 +4695,7 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="112"/>
+      <c r="A38" s="70"/>
       <c r="B38" s="23" t="s">
         <v>33</v>
       </c>
@@ -4685,7 +4711,9 @@
       <c r="F38" s="24">
         <v>8</v>
       </c>
-      <c r="G38" s="25"/>
+      <c r="G38" s="25">
+        <v>8</v>
+      </c>
       <c r="H38" s="26"/>
       <c r="I38" s="27"/>
       <c r="J38" s="28"/>
@@ -4707,7 +4735,7 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="111" t="s">
+      <c r="A39" s="69" t="s">
         <v>36</v>
       </c>
       <c r="B39" s="23" t="s">
@@ -4717,7 +4745,9 @@
       <c r="D39" s="24"/>
       <c r="E39" s="55"/>
       <c r="F39" s="24"/>
-      <c r="G39" s="46"/>
+      <c r="G39" s="46">
+        <v>0</v>
+      </c>
       <c r="H39" s="56"/>
       <c r="I39" s="36"/>
       <c r="J39" s="57"/>
@@ -4739,7 +4769,7 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="112"/>
+      <c r="A40" s="70"/>
       <c r="B40" s="23" t="s">
         <v>33</v>
       </c>
@@ -4749,7 +4779,9 @@
       <c r="F40" s="24">
         <v>7</v>
       </c>
-      <c r="G40" s="46"/>
+      <c r="G40" s="46">
+        <v>4</v>
+      </c>
       <c r="H40" s="56"/>
       <c r="I40" s="36"/>
       <c r="J40" s="57"/>
@@ -4771,7 +4803,7 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="111" t="s">
+      <c r="A41" s="69" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="23" t="s">
@@ -4789,7 +4821,9 @@
       <c r="F41" s="24">
         <v>0</v>
       </c>
-      <c r="G41" s="25"/>
+      <c r="G41" s="25">
+        <v>0</v>
+      </c>
       <c r="H41" s="26"/>
       <c r="I41" s="27"/>
       <c r="J41" s="28"/>
@@ -4811,7 +4845,7 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="112"/>
+      <c r="A42" s="70"/>
       <c r="B42" s="23" t="s">
         <v>33</v>
       </c>
@@ -4827,7 +4861,9 @@
       <c r="F42" s="24">
         <v>0</v>
       </c>
-      <c r="G42" s="25"/>
+      <c r="G42" s="25">
+        <v>1</v>
+      </c>
       <c r="H42" s="26"/>
       <c r="I42" s="27"/>
       <c r="J42" s="28"/>
@@ -4849,7 +4885,7 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="111" t="s">
+      <c r="A43" s="69" t="s">
         <v>38</v>
       </c>
       <c r="B43" s="23" t="s">
@@ -4867,7 +4903,9 @@
       <c r="F43" s="24">
         <v>799</v>
       </c>
-      <c r="G43" s="25"/>
+      <c r="G43" s="25">
+        <v>814</v>
+      </c>
       <c r="H43" s="26"/>
       <c r="I43" s="27"/>
       <c r="J43" s="28"/>
@@ -4889,7 +4927,7 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="112"/>
+      <c r="A44" s="70"/>
       <c r="B44" s="23" t="s">
         <v>33</v>
       </c>
@@ -4905,7 +4943,9 @@
       <c r="F44" s="24">
         <v>522</v>
       </c>
-      <c r="G44" s="25"/>
+      <c r="G44" s="25">
+        <v>435</v>
+      </c>
       <c r="H44" s="26"/>
       <c r="I44" s="27"/>
       <c r="J44" s="28"/>
@@ -4927,7 +4967,7 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="111" t="s">
+      <c r="A45" s="69" t="s">
         <v>39</v>
       </c>
       <c r="B45" s="23" t="s">
@@ -4945,7 +4985,9 @@
       <c r="F45" s="24">
         <v>28</v>
       </c>
-      <c r="G45" s="25"/>
+      <c r="G45" s="25">
+        <v>31</v>
+      </c>
       <c r="H45" s="26"/>
       <c r="I45" s="27"/>
       <c r="J45" s="28"/>
@@ -4967,7 +5009,7 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="112"/>
+      <c r="A46" s="70"/>
       <c r="B46" s="23" t="s">
         <v>33</v>
       </c>
@@ -4983,7 +5025,9 @@
       <c r="F46" s="24">
         <v>13</v>
       </c>
-      <c r="G46" s="25"/>
+      <c r="G46" s="25">
+        <v>24</v>
+      </c>
       <c r="H46" s="26"/>
       <c r="I46" s="27"/>
       <c r="J46" s="28"/>
@@ -5005,7 +5049,7 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="84" t="s">
+      <c r="A47" s="63" t="s">
         <v>40</v>
       </c>
       <c r="B47" s="23" t="s">
@@ -5023,7 +5067,9 @@
       <c r="F47" s="24">
         <v>79</v>
       </c>
-      <c r="G47" s="25"/>
+      <c r="G47" s="25">
+        <v>61</v>
+      </c>
       <c r="H47" s="26"/>
       <c r="I47" s="7"/>
       <c r="J47" s="28"/>
@@ -5045,7 +5091,7 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="85"/>
+      <c r="A48" s="64"/>
       <c r="B48" s="23" t="s">
         <v>33</v>
       </c>
@@ -5061,7 +5107,9 @@
       <c r="F48" s="24">
         <v>70</v>
       </c>
-      <c r="G48" s="25"/>
+      <c r="G48" s="25">
+        <v>63</v>
+      </c>
       <c r="H48" s="25"/>
       <c r="I48" s="39"/>
       <c r="J48" s="25"/>
@@ -5083,7 +5131,7 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="108" t="s">
+      <c r="A49" s="65" t="s">
         <v>41</v>
       </c>
       <c r="B49" s="23" t="s">
@@ -5101,7 +5149,9 @@
       <c r="F49" s="24">
         <v>41</v>
       </c>
-      <c r="G49" s="25"/>
+      <c r="G49" s="25">
+        <v>32</v>
+      </c>
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
       <c r="J49" s="25"/>
@@ -5123,7 +5173,7 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="109"/>
+      <c r="A50" s="66"/>
       <c r="B50" s="23" t="s">
         <v>33</v>
       </c>
@@ -5139,7 +5189,9 @@
       <c r="F50" s="24">
         <v>18</v>
       </c>
-      <c r="G50" s="25"/>
+      <c r="G50" s="25">
+        <v>26</v>
+      </c>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
@@ -5161,7 +5213,7 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="84" t="s">
+      <c r="A51" s="63" t="s">
         <v>42</v>
       </c>
       <c r="B51" s="23" t="s">
@@ -5179,7 +5231,9 @@
       <c r="F51" s="24">
         <v>156</v>
       </c>
-      <c r="G51" s="25"/>
+      <c r="G51" s="25">
+        <v>194</v>
+      </c>
       <c r="H51" s="25"/>
       <c r="I51" s="25"/>
       <c r="J51" s="25"/>
@@ -5201,7 +5255,7 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="85"/>
+      <c r="A52" s="64"/>
       <c r="B52" s="23" t="s">
         <v>33</v>
       </c>
@@ -5217,7 +5271,9 @@
       <c r="F52" s="24">
         <v>127</v>
       </c>
-      <c r="G52" s="25"/>
+      <c r="G52" s="25">
+        <v>141</v>
+      </c>
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
       <c r="J52" s="25"/>
@@ -5239,10 +5295,10 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="103" t="s">
+      <c r="A53" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="B53" s="110"/>
+      <c r="B53" s="68"/>
       <c r="C53" s="40">
         <f t="shared" ref="C53:N53" si="7">SUM(C33:C52)</f>
         <v>2513</v>
@@ -5261,7 +5317,7 @@
       </c>
       <c r="G53" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2260</v>
       </c>
       <c r="H53" s="40">
         <f t="shared" si="7"/>
@@ -31822,17 +31878,12 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A1:O4"/>
+    <mergeCell ref="A5:O6"/>
+    <mergeCell ref="A8:O8"/>
+    <mergeCell ref="A9:O9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:O10"/>
     <mergeCell ref="A30:O30"/>
     <mergeCell ref="C31:N31"/>
     <mergeCell ref="A12:A13"/>
@@ -31847,12 +31898,17 @@
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A29:O29"/>
-    <mergeCell ref="A1:O4"/>
-    <mergeCell ref="A5:O6"/>
-    <mergeCell ref="A8:O8"/>
-    <mergeCell ref="A9:O9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:O10"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
